--- a/biology/Médecine/Syndrome_de_Pearson/Syndrome_de_Pearson.xlsx
+++ b/biology/Médecine/Syndrome_de_Pearson/Syndrome_de_Pearson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Pearson est une maladie mitochondriale d'hérédité strictement maternelle ou sporadique.
@@ -518,6 +530,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -543,7 +557,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prévalence
 Incidence
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,14 +617,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Signes fonctionnels
-Examen clinique
-Examens complémentaires</t>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Traitement médicamenteux
+Traitement physique (kinésithérapie, rééducation, etc.)
+Prise en charge sociale, psychologique, groupes de malades (s'il y a lieu).</t>
         </is>
       </c>
     </row>
@@ -631,14 +651,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Prise en charge</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Traitement médicamenteux
-Traitement physique (kinésithérapie, rééducation, etc.)
-Prise en charge sociale, psychologique, groupes de malades (s'il y a lieu).</t>
+          <t>Évolution et complications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Expliquer les éventuelles complications et leur causes.
+Évolution de la maladie sans traitement
+Évolution sous traitement</t>
         </is>
       </c>
     </row>
@@ -663,42 +685,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Évolution et complications</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Expliquer les éventuelles complications et leur causes.
-Évolution de la maladie sans traitement
-Évolution sous traitement</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Pearson</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Pearson</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
